--- a/Data for export.xlsx
+++ b/Data for export.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eagle\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9BD0E3D1-BF8C-432E-B282-1299B85E30ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F25C2-52B7-4703-B368-227B3DEBBFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -67,15 +80,30 @@
   <si>
     <t>Probability of Conflict Recidivism</t>
   </si>
+  <si>
+    <t>Precipitation</t>
+  </si>
+  <si>
+    <t>Military Expenditures</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Freshwater Withdrawls</t>
+  </si>
+  <si>
+    <t>Predicted Conflict</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +234,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -562,17 +598,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -630,6 +670,7474 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6624983270877944E-2"/>
+          <c:y val="0.10938468958864467"/>
+          <c:w val="0.86283834649357605"/>
+          <c:h val="0.73482374838745212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tajikistan GDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86054184199999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.27</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-6F4A-4876-9B15-3B3C793A3295}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kyrgistan GDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$H$2:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.27</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-6F4A-4876-9B15-3B3C793A3295}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782910512"/>
+        <c:axId val="782915912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782910512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782915912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="782915912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Billions of USD</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782910512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37865876355058886"/>
+          <c:y val="0.94022248078525228"/>
+          <c:w val="0.248309847591108"/>
+          <c:h val="4.8713351450576564E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3349800791203993E-2"/>
+          <c:y val="0.1487603305785124"/>
+          <c:w val="0.82658084748904981"/>
+          <c:h val="0.66589965510509541"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tajikistan Average Precipitation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE23-4CFF-A62C-21C05246957B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kyrgistan Average Precipitation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE23-4CFF-A62C-21C05246957B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782910512"/>
+        <c:axId val="782915912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782910512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782915912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="782915912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Precipetation (millimeters)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782910512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8774603042257039E-2"/>
+          <c:y val="0.15588163360678914"/>
+          <c:w val="0.82367071158545502"/>
+          <c:h val="0.64990594368622556"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tajikistan Military Expenditures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$I$2:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81A6-42B0-B1E7-0608688028AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kyrgistan Military Expenditures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$J$2:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>115.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>127.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-81A6-42B0-B1E7-0608688028AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782910512"/>
+        <c:axId val="782915912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782910512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782915912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="782915912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Millions of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> USD</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782910512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5696958220903753E-2"/>
+          <c:y val="0.12631578947368421"/>
+          <c:w val="0.84195835240033867"/>
+          <c:h val="0.70461187088456045"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tajikistan Freshwater withdrawals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$K$2:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.7799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0333-44CD-8208-719D141781C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kyrgistan Freshwater withdrawals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$L$2:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>9.9833339999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0333-44CD-8208-719D141781C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="782910512"/>
+        <c:axId val="782915912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="782910512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782915912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="782915912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Billion Cubic Meters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="782910512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7895077699921378E-2"/>
+          <c:y val="7.8125342078150056E-2"/>
+          <c:w val="0.90527570166526161"/>
+          <c:h val="0.82035117037996297"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Probability of Conflict Recidivism</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>7.9506709999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5426999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.510307E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.616899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.8218110000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.7986780000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5990929999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5560439999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.8290499999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.5634269999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.016539E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.13916361999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28316854000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9949999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.7026400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.258485E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6099419999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.3987499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.10450381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1882100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1036364</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27577104000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.6537850000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.81094695000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90588451000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.4197699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.4197699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.4197699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.4197699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.4197699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.4197699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4.4197699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.4197699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.4197699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-4.4197699999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B795-4B9A-A9CA-05718C4AB418}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="854378328"/>
+        <c:axId val="854379048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="854378328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="854379048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="854379048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="854378328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4980622909500925E-2"/>
+          <c:y val="8.3906924427196911E-2"/>
+          <c:w val="0.84422916449523233"/>
+          <c:h val="0.73025203872767042"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taj vs Kyrg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$14:$S$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EAA5-4C07-BE3B-74DF5C22157C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Conflict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$14:$U$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.9506709999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5426999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.510307E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.616899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.8218110000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.7986780000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5990929999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5560439999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.8290499999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.5634269999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.016539E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.13916361999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28316854000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9949999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.7026400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.258485E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6099419999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.3987499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.10450381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1882100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1036364</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27577104000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.6537850000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.81094695000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90588451000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EAA5-4C07-BE3B-74DF5C22157C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="937439184"/>
+        <c:axId val="937440624"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$R$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Tajikistan Conflict</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Q$14:$Q$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$R$14:$R$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-EAA5-4C07-BE3B-74DF5C22157C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$T$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Kyrgistan Conflict</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Q$14:$Q$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$T$14:$T$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-EAA5-4C07-BE3B-74DF5C22157C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="937439184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47230172040769269"/>
+              <c:y val="0.89071948948913005"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937440624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="937440624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Probability of Conflict Recidivism</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937439184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.9794100647166392E-2"/>
+          <c:y val="9.4395289980596528E-2"/>
+          <c:w val="0.83139322386145775"/>
+          <c:h val="0.73025203872767042"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tajikistan Conflict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$14:$R$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F9D-4A45-B6D8-468017CDBA55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kyrgistan Conflict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$14:$T$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F9D-4A45-B6D8-468017CDBA55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Conflict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$Q$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$14:$U$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.9506709999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5426999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.510307E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.616899E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.8218110000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.7986780000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5990929999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5560439999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.8290499999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.5634269999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.016539E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.13916361999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28316854000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9949999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.7026400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.258485E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6099419999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.3987499999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.10450381</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.1882100000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1036364</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27577104000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.6537850000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.81094695000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90588451000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4F9D-4A45-B6D8-468017CDBA55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="937439184"/>
+        <c:axId val="937440624"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$S$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Taj vs Kyrg</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Q$14:$Q$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2021</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2022</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$S$14:$S$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-4F9D-4A45-B6D8-468017CDBA55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="937439184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4674882426700272"/>
+              <c:y val="0.89334158087747984"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937440624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="937440624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.05"/>
+          <c:min val="-0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Probability of Conflict Recidivism</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="937439184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>119590</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>296333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42FC7320-041B-F364-2479-28232329B5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2360D9-6790-48B8-BD6F-5DCECCF0A24C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A666F0B7-2CBA-450C-9D04-7F73F71C17C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB3109A-706C-4128-9CB3-15724B76E0C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C82E04-688F-AA56-2138-D0A1C1A50B19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A912F6A-CDA9-91D3-F397-4AD87D5513C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F5CD10-CB5F-4792-9184-2A5CF05EF9A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,11 +8436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +8514,7 @@
         <v>919</v>
       </c>
       <c r="F2">
-        <v>5.31</v>
+        <v>1.32</v>
       </c>
       <c r="G2">
         <v>639</v>
@@ -1015,13 +8523,13 @@
         <v>1.65</v>
       </c>
       <c r="I2">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="J2">
         <v>26.1</v>
       </c>
       <c r="K2">
-        <v>12.045999999999999</v>
+        <v>12.05</v>
       </c>
       <c r="L2">
         <v>9.9833339999999993</v>
@@ -1044,7 +8552,7 @@
         <v>773</v>
       </c>
       <c r="F3">
-        <v>3.7</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G3">
         <v>547</v>
@@ -1059,10 +8567,10 @@
         <v>23.1</v>
       </c>
       <c r="K3">
-        <v>12.1775</v>
+        <v>12.18</v>
       </c>
       <c r="L3">
-        <v>10.031667000000001</v>
+        <v>10.029999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1082,7 +8590,7 @@
         <v>577</v>
       </c>
       <c r="F4">
-        <v>8.32</v>
+        <v>0.86054184199999995</v>
       </c>
       <c r="G4">
         <v>432</v>
@@ -1097,7 +8605,7 @@
         <v>25.8</v>
       </c>
       <c r="K4">
-        <v>12.308999999999999</v>
+        <v>12.31</v>
       </c>
       <c r="L4">
         <v>10.08</v>
@@ -1120,7 +8628,7 @@
         <v>577</v>
       </c>
       <c r="F5">
-        <v>9.58</v>
+        <v>1.08</v>
       </c>
       <c r="G5">
         <v>416</v>
@@ -1135,10 +8643,10 @@
         <v>22.2</v>
       </c>
       <c r="K5">
-        <v>12.1233</v>
+        <v>12.12</v>
       </c>
       <c r="L5">
-        <v>9.6844999999999999</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1158,7 +8666,7 @@
         <v>766</v>
       </c>
       <c r="F6">
-        <v>10.8</v>
+        <v>1.22</v>
       </c>
       <c r="G6">
         <v>608</v>
@@ -1173,10 +8681,10 @@
         <v>25.9</v>
       </c>
       <c r="K6">
-        <v>11.9376</v>
+        <v>11.94</v>
       </c>
       <c r="L6">
-        <v>9.2889999999999997</v>
+        <v>9.2899999999999991</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1196,7 +8704,7 @@
         <v>852</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>1.56</v>
       </c>
       <c r="G7">
         <v>656</v>
@@ -1211,10 +8719,10 @@
         <v>32.6</v>
       </c>
       <c r="K7">
-        <v>11.751899999999999</v>
+        <v>11.75</v>
       </c>
       <c r="L7">
-        <v>8.8934999999999995</v>
+        <v>8.89</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1234,7 +8742,7 @@
         <v>753</v>
       </c>
       <c r="F8">
-        <v>10.3</v>
+        <v>2.08</v>
       </c>
       <c r="G8">
         <v>527</v>
@@ -1249,10 +8757,10 @@
         <v>37.200000000000003</v>
       </c>
       <c r="K8">
-        <v>11.5662</v>
+        <v>11.57</v>
       </c>
       <c r="L8">
-        <v>8.4979999999999993</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1272,7 +8780,7 @@
         <v>682</v>
       </c>
       <c r="F9">
-        <v>6.7</v>
+        <v>2.31</v>
       </c>
       <c r="G9">
         <v>500</v>
@@ -1287,10 +8795,10 @@
         <v>39.700000000000003</v>
       </c>
       <c r="K9">
-        <v>11.3805</v>
+        <v>11.38</v>
       </c>
       <c r="L9">
-        <v>8.1024999999999991</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1310,7 +8818,7 @@
         <v>661</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>2.83</v>
       </c>
       <c r="G10">
         <v>424</v>
@@ -1325,10 +8833,10 @@
         <v>47.2</v>
       </c>
       <c r="K10">
-        <v>11.194800000000001</v>
+        <v>11.19</v>
       </c>
       <c r="L10">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1348,7 +8856,7 @@
         <v>621</v>
       </c>
       <c r="F11">
-        <v>7.8</v>
+        <v>3.72</v>
       </c>
       <c r="G11">
         <v>438</v>
@@ -1363,10 +8871,10 @@
         <v>50.9</v>
       </c>
       <c r="K11">
-        <v>11.108689</v>
+        <v>11.11</v>
       </c>
       <c r="L11">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1386,7 +8894,7 @@
         <v>575</v>
       </c>
       <c r="F12">
-        <v>7.9</v>
+        <v>5.16</v>
       </c>
       <c r="G12">
         <v>386</v>
@@ -1401,10 +8909,10 @@
         <v>61.1</v>
       </c>
       <c r="K12">
-        <v>11.022577999999999</v>
+        <v>11.02</v>
       </c>
       <c r="L12">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1424,7 +8932,7 @@
         <v>755</v>
       </c>
       <c r="F13">
-        <v>3.9</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="G13">
         <v>497</v>
@@ -1439,10 +8947,10 @@
         <v>67.2</v>
       </c>
       <c r="K13">
-        <v>10.936465999999999</v>
+        <v>10.94</v>
       </c>
       <c r="L13">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1462,7 +8970,7 @@
         <v>716</v>
       </c>
       <c r="F14">
-        <v>6.5</v>
+        <v>5.64</v>
       </c>
       <c r="G14">
         <v>552</v>
@@ -1477,10 +8985,10 @@
         <v>77.2</v>
       </c>
       <c r="K14">
-        <v>10.850355</v>
+        <v>10.85</v>
       </c>
       <c r="L14">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1500,7 +9008,7 @@
         <v>672</v>
       </c>
       <c r="F15">
-        <v>7.4</v>
+        <v>6.52</v>
       </c>
       <c r="G15">
         <v>512</v>
@@ -1515,10 +9023,10 @@
         <v>86.4</v>
       </c>
       <c r="K15">
-        <v>10.764244</v>
+        <v>10.76</v>
       </c>
       <c r="L15">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1538,7 +9046,7 @@
         <v>680</v>
       </c>
       <c r="F16">
-        <v>7.5</v>
+        <v>7.63</v>
       </c>
       <c r="G16">
         <v>384</v>
@@ -1553,10 +9061,10 @@
         <v>107.5</v>
       </c>
       <c r="K16">
-        <v>10.678133000000001</v>
+        <v>10.68</v>
       </c>
       <c r="L16">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1576,7 +9084,7 @@
         <v>640</v>
       </c>
       <c r="F17">
-        <v>7.4</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="G17">
         <v>468</v>
@@ -1591,10 +9099,10 @@
         <v>119</v>
       </c>
       <c r="K17">
-        <v>10.592022</v>
+        <v>10.59</v>
       </c>
       <c r="L17">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1614,7 +9122,7 @@
         <v>638</v>
       </c>
       <c r="F18">
-        <v>6.7</v>
+        <v>9.11</v>
       </c>
       <c r="G18">
         <v>410</v>
@@ -1629,10 +9137,10 @@
         <v>128</v>
       </c>
       <c r="K18">
-        <v>10.505910999999999</v>
+        <v>10.51</v>
       </c>
       <c r="L18">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1652,7 +9160,7 @@
         <v>768</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>8.27</v>
       </c>
       <c r="G19">
         <v>510</v>
@@ -1667,10 +9175,10 @@
         <v>117</v>
       </c>
       <c r="K19">
-        <v>10.4198</v>
+        <v>10.42</v>
       </c>
       <c r="L19">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1690,7 +9198,7 @@
         <v>778</v>
       </c>
       <c r="F20">
-        <v>6.9</v>
+        <v>6.99</v>
       </c>
       <c r="G20">
         <v>652</v>
@@ -1705,10 +9213,10 @@
         <v>115.6</v>
       </c>
       <c r="K20">
-        <v>8.7490000000000006</v>
+        <v>8.75</v>
       </c>
       <c r="L20">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1728,7 +9236,7 @@
         <v>634</v>
       </c>
       <c r="F21">
-        <v>7.1</v>
+        <v>7.54</v>
       </c>
       <c r="G21">
         <v>487</v>
@@ -1743,10 +9251,10 @@
         <v>121.5</v>
       </c>
       <c r="K21">
-        <v>7.9880000000000004</v>
+        <v>7.99</v>
       </c>
       <c r="L21">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1766,7 +9274,7 @@
         <v>561</v>
       </c>
       <c r="F22">
-        <v>7.6</v>
+        <v>7.77</v>
       </c>
       <c r="G22">
         <v>454</v>
@@ -1781,10 +9289,10 @@
         <v>127.9</v>
       </c>
       <c r="K22">
-        <v>9.7739999999999991</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="L22">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1804,7 +9312,7 @@
         <v>688</v>
       </c>
       <c r="F23">
-        <v>7.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G23">
         <v>431</v>
@@ -1819,10 +9327,10 @@
         <v>128</v>
       </c>
       <c r="K23">
-        <v>10.602</v>
+        <v>10.6</v>
       </c>
       <c r="L23">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1842,7 +9350,7 @@
         <v>679</v>
       </c>
       <c r="F24">
-        <v>4.5</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="G24">
         <v>484</v>
@@ -1857,10 +9365,10 @@
         <v>128.9</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="L24">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1877,10 +9385,10 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>443</v>
+        <v>683</v>
       </c>
       <c r="F25">
-        <v>9.4</v>
+        <v>8.94</v>
       </c>
       <c r="G25">
         <v>342</v>
@@ -1895,10 +9403,10 @@
         <v>133</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="L25">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1915,16 +9423,16 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>683</v>
+        <v>443</v>
       </c>
       <c r="F26">
-        <v>7.3</v>
+        <v>10.49</v>
       </c>
       <c r="G26">
         <v>489</v>
       </c>
       <c r="H26">
-        <v>4.9000000000000004</v>
+        <v>10.93</v>
       </c>
       <c r="I26">
         <v>103</v>
@@ -1933,24 +9441,51 @@
         <v>149</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="L26">
-        <v>7.7069999999999999</v>
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" ref="F29" si="0">F25-F24</f>
+        <v>0.80999999999999872</v>
+      </c>
+      <c r="H29">
+        <f>H25-H24</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,7 +9502,7 @@
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2005,12 +9540,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1998</v>
       </c>
       <c r="B2" s="2">
-        <v>-6.964708E-2</v>
+        <v>7.9506709999999994E-2</v>
       </c>
       <c r="D2" s="1">
         <v>1998</v>
@@ -2043,12 +9578,12 @@
         <v>0.44464134</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1999</v>
       </c>
       <c r="B3" s="2">
-        <v>-7.9008610000000007E-2</v>
+        <v>-1.5426999999999999E-3</v>
       </c>
       <c r="D3" s="1">
         <v>1999</v>
@@ -2081,12 +9616,12 @@
         <v>0.44464134</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
       <c r="B4" s="2">
-        <v>0.16065014999999999</v>
+        <v>3.510307E-2</v>
       </c>
       <c r="D4" s="1">
         <v>2000</v>
@@ -2119,12 +9654,12 @@
         <v>0.44464134</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2001</v>
       </c>
       <c r="B5" s="2">
-        <v>5.7716980000000001E-2</v>
+        <v>-2.616899E-2</v>
       </c>
       <c r="D5" s="1">
         <v>2001</v>
@@ -2157,12 +9692,12 @@
         <v>0.44464134</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2002</v>
       </c>
       <c r="B6" s="2">
-        <v>-4.5237800000000002E-2</v>
+        <v>-8.8218110000000002E-2</v>
       </c>
       <c r="D6" s="1">
         <v>2002</v>
@@ -2195,12 +9730,12 @@
         <v>0.44464134</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2003</v>
       </c>
       <c r="B7" s="2">
-        <v>-6.7401710000000004E-2</v>
+        <v>-8.7986780000000001E-2</v>
       </c>
       <c r="D7" s="1">
         <v>2003</v>
@@ -2233,12 +9768,12 @@
         <v>0.44464134</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2004</v>
       </c>
       <c r="B8" s="2">
-        <v>1.1823439999999999E-2</v>
+        <v>2.5990929999999999E-2</v>
       </c>
       <c r="D8" s="1">
         <v>2004</v>
@@ -2271,287 +9806,707 @@
         <v>0.44464134</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
       <c r="B9" s="2">
-        <v>-2.7720410000000001E-2</v>
+        <v>3.5560439999999999E-2</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2006</v>
       </c>
       <c r="B10" s="2">
-        <v>4.3586079999999999E-2</v>
+        <v>-6.8290499999999997E-3</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2007</v>
       </c>
       <c r="B11" s="2">
-        <v>-0.11324136999999999</v>
+        <v>-6.5634269999999995E-2</v>
       </c>
       <c r="E11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2008</v>
       </c>
       <c r="B12" s="2">
-        <v>-9.1822039999999994E-2</v>
+        <v>1.016539E-2</v>
       </c>
       <c r="E12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2009</v>
       </c>
       <c r="B13" s="2">
-        <v>-0.14467799000000001</v>
+        <v>-0.13916361999999999</v>
       </c>
       <c r="E13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
+      <c r="Q13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
       <c r="B14" s="2">
-        <v>0.37404428000000001</v>
+        <v>0.28316854000000002</v>
       </c>
       <c r="E14" s="2"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
+      <c r="Q14">
+        <v>1998</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <f>B2</f>
+        <v>7.9506709999999994E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2011</v>
       </c>
       <c r="B15" s="2">
-        <v>-1.1891209999999999E-2</v>
+        <v>3.9949999999999999E-2</v>
       </c>
       <c r="E15" s="2"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
+      <c r="Q15">
+        <v>1999</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" ref="U15:U38" si="0">B3</f>
+        <v>-1.5426999999999999E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2012</v>
       </c>
       <c r="B16" s="2">
-        <v>9.375986E-2</v>
+        <v>-3.7026400000000001E-2</v>
       </c>
       <c r="E16" s="2"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
+      <c r="Q16">
+        <v>2000</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.510307E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2013</v>
       </c>
       <c r="B17" s="2">
-        <v>0.12870907000000001</v>
+        <v>-4.258485E-2</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
+      <c r="Q17">
+        <v>2001</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.616899E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2014</v>
       </c>
       <c r="B18" s="2">
-        <v>0.11255933</v>
+        <v>5.6099419999999997E-2</v>
       </c>
       <c r="E18" s="2"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
+      <c r="Q18">
+        <v>2002</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.8218110000000002E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2015</v>
       </c>
       <c r="B19" s="2">
-        <v>1.469472E-2</v>
+        <v>-4.3987499999999999E-3</v>
       </c>
       <c r="E19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
+      <c r="Q19">
+        <v>2003</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.7986780000000001E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2016</v>
       </c>
       <c r="B20" s="2">
-        <v>-4.5710819999999999E-2</v>
+        <v>-0.10450381</v>
       </c>
       <c r="E20" s="2"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
+      <c r="Q20">
+        <v>2004</v>
+      </c>
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5990929999999999E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2017</v>
       </c>
       <c r="B21" s="2">
-        <v>0.10722416999999999</v>
+        <v>-1.1882100000000001E-3</v>
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
+      <c r="Q21">
+        <v>2005</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5560439999999999E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2018</v>
       </c>
       <c r="B22" s="2">
-        <v>2.9737010000000001E-2</v>
+        <v>0.1036364</v>
       </c>
       <c r="E22" s="2"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
+      <c r="Q22">
+        <v>2006</v>
+      </c>
+      <c r="R22" s="5">
+        <v>1</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.8290499999999997E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2019</v>
       </c>
       <c r="B23" s="2">
-        <v>4.6181800000000004E-3</v>
+        <v>0.27577104000000002</v>
       </c>
       <c r="E23" s="2"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
+      <c r="Q23">
+        <v>2007</v>
+      </c>
+      <c r="R23" s="5">
+        <v>0</v>
+      </c>
+      <c r="S23" s="5">
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.5634269999999995E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2020</v>
       </c>
       <c r="B24" s="2">
-        <v>-6.8719929999999999E-2</v>
+        <v>-5.6537850000000001E-2</v>
       </c>
       <c r="E24" s="2"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
+      <c r="Q24">
+        <v>2008</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.016539E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2021</v>
       </c>
       <c r="B25" s="2">
-        <v>0.72705536999999998</v>
+        <v>0.81094695000000006</v>
       </c>
       <c r="E25" s="2"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
+      <c r="Q25">
+        <v>2009</v>
+      </c>
+      <c r="R25" s="5">
+        <v>1</v>
+      </c>
+      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.13916361999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2022</v>
       </c>
       <c r="B26" s="2">
-        <v>0.89890035000000001</v>
+        <v>0.90588451000000003</v>
       </c>
       <c r="E26" s="2"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
+      <c r="Q26">
+        <v>2010</v>
+      </c>
+      <c r="R26" s="5">
+        <v>1</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
+        <v>1</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28316854000000002</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2023</v>
       </c>
       <c r="B27" s="2">
-        <v>0.44464134</v>
+        <v>-4.4197699999999999E-3</v>
+      </c>
+      <c r="Q27">
+        <v>2011</v>
+      </c>
+      <c r="R27" s="5">
+        <v>1</v>
+      </c>
+      <c r="S27" s="5">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9949999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2024</v>
       </c>
       <c r="B28" s="2">
-        <v>0.44464134</v>
+        <v>-4.4197699999999999E-3</v>
+      </c>
+      <c r="Q28">
+        <v>2012</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0</v>
+      </c>
+      <c r="S28" s="5">
+        <v>0</v>
+      </c>
+      <c r="T28" s="5">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.7026400000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2025</v>
       </c>
       <c r="B29" s="2">
-        <v>0.44464134</v>
+        <v>-4.4197699999999999E-3</v>
+      </c>
+      <c r="Q29">
+        <v>2013</v>
+      </c>
+      <c r="R29" s="5">
+        <v>1</v>
+      </c>
+      <c r="S29" s="5">
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.258485E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2026</v>
       </c>
       <c r="B30" s="2">
-        <v>0.44464134</v>
+        <v>-4.4197699999999999E-3</v>
+      </c>
+      <c r="Q30">
+        <v>2014</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6099419999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2027</v>
       </c>
       <c r="B31" s="2">
-        <v>0.44464134</v>
+        <v>-4.4197699999999999E-3</v>
+      </c>
+      <c r="Q31">
+        <v>2015</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0</v>
+      </c>
+      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.3987499999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2028</v>
       </c>
       <c r="B32" s="2">
-        <v>0.44464134</v>
+        <v>-4.4197699999999999E-3</v>
+      </c>
+      <c r="Q32">
+        <v>2016</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0</v>
+      </c>
+      <c r="T32" s="5">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.10450381</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2029</v>
       </c>
       <c r="B33" s="2">
-        <v>0.44464134</v>
+        <v>-4.4197699999999999E-3</v>
+      </c>
+      <c r="Q33">
+        <v>2017</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.1882100000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2030</v>
       </c>
       <c r="B34" s="2">
-        <v>0.44464134</v>
+        <v>-4.4197699999999999E-3</v>
+      </c>
+      <c r="Q34">
+        <v>2018</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0</v>
+      </c>
+      <c r="T34" s="5">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1036364</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2031</v>
       </c>
       <c r="B35" s="2">
-        <v>0.44464134</v>
+        <v>-4.4197699999999999E-3</v>
+      </c>
+      <c r="Q35">
+        <v>2019</v>
+      </c>
+      <c r="R35" s="5">
+        <v>0</v>
+      </c>
+      <c r="S35" s="5">
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27577104000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2032</v>
       </c>
       <c r="B36" s="2">
-        <v>0.44464134</v>
+        <v>-4.4197699999999999E-3</v>
+      </c>
+      <c r="Q36">
+        <v>2020</v>
+      </c>
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0</v>
+      </c>
+      <c r="T36" s="5">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.6537850000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>2021</v>
+      </c>
+      <c r="R37" s="5">
+        <v>1</v>
+      </c>
+      <c r="S37" s="5">
+        <v>1</v>
+      </c>
+      <c r="T37" s="5">
+        <v>1</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81094695000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>2022</v>
+      </c>
+      <c r="R38" s="5">
+        <v>1</v>
+      </c>
+      <c r="S38" s="5">
+        <v>1</v>
+      </c>
+      <c r="T38" s="5">
+        <v>1</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="0"/>
+        <v>0.90588451000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>